--- a/hardware/BOM.xlsx
+++ b/hardware/BOM.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jager\Dropbox\Public\Geiger\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-252" yWindow="96" windowWidth="15312" windowHeight="10056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="13080"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM_CO2_SenseAir" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM_Radiation_2020-06-04_15-29-" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -31,122 +36,244 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>LED1,LED2,LED3</t>
-  </si>
-  <si>
-    <t>LED0805-RD</t>
-  </si>
-  <si>
-    <t>USB-A</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>USB-A-SMD_POWER</t>
-  </si>
-  <si>
-    <t>USB_MICRO</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>MICRO-USB-POWER</t>
-  </si>
-  <si>
-    <t>2.54x5pin</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>DIP-1X5P-2.54MM</t>
+    <t>SBM20</t>
+  </si>
+  <si>
+    <t>GM1,GM2</t>
+  </si>
+  <si>
+    <t>NE555DR</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOIC-8_L5.0-W4.0-P1.27-LS6.0-BL</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>US1M</t>
+  </si>
+  <si>
+    <t>D1,D2,D3</t>
+  </si>
+  <si>
+    <t>DO-214AC_L4.3-W2.7-LS5.3-FD</t>
   </si>
   <si>
     <t>1K</t>
   </si>
   <si>
-    <t>R1,R2,R3</t>
+    <t>R4,R10,R14,R15</t>
   </si>
   <si>
     <t>R0805</t>
   </si>
   <si>
-    <t>T.Switch3x4x2</t>
-  </si>
-  <si>
-    <t>SW1,SW2</t>
-  </si>
-  <si>
-    <t>SWITCH-3.0*4.0</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>CASE-B_3528</t>
-  </si>
-  <si>
-    <t>DS18B20</t>
+    <t>33K</t>
+  </si>
+  <si>
+    <t>R3,R7</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>Micro USB-B 5P_C40942</t>
+  </si>
+  <si>
+    <t>USB1</t>
+  </si>
+  <si>
+    <t>MICRO-USB-12</t>
+  </si>
+  <si>
+    <t>PKLCS1212E4001-R1</t>
+  </si>
+  <si>
+    <t>BUZZER1</t>
+  </si>
+  <si>
+    <t>PKLCS1212E4001_BUZ</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Led 3MM</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED_TH_3MM</t>
+  </si>
+  <si>
+    <t>C9,C8</t>
+  </si>
+  <si>
+    <t>CAP-SMD_L3.2-W1.6-R-RD</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>IND-SMD_L6.0-W6.0_FNR60XXS</t>
+  </si>
+  <si>
+    <t>E18-MS1PA1-PCB_GEIGER</t>
   </si>
   <si>
     <t>U2</t>
   </si>
   <si>
-    <t>TO-92-3_L4.9-W3.7-P1.27-L</t>
-  </si>
-  <si>
-    <t>SenseAir S8</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>SENSEAIR S8-REV1</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>E18-MS1PA1-PCB_CO2</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>BME280</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>LGA-8_BME280</t>
-  </si>
-  <si>
-    <t>AMS1117-3.3</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOT-223-4_L6.5-W3.5-P2.30-LS7.0-BR</t>
-  </si>
-  <si>
-    <t>LED0805</t>
+    <t>E18-MS1PA1-PCB</t>
+  </si>
+  <si>
+    <t>7.5M</t>
+  </si>
+  <si>
+    <t>R1,R5,R6,R2</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>C4,C10,C11</t>
+  </si>
+  <si>
+    <t>MMBTA42</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SOT-23-3_L2.9-W1.3-P1.90-LS2.4-BR</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>R11,R9,R12</t>
+  </si>
+  <si>
+    <t>C3,C1,C2</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>RES-ADJ_3314J</t>
+  </si>
+  <si>
+    <t>MMBT3904</t>
+  </si>
+  <si>
+    <t>Q2,Q3,Q4</t>
+  </si>
+  <si>
+    <t>NCP1117ST33T3G</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>SOT-223-3_L6.5-W3.4-P2.30-LS7.0-BR</t>
+  </si>
+  <si>
+    <t>Альтернативный магазин</t>
+  </si>
+  <si>
+    <t>AMS1117-3,3</t>
+  </si>
+  <si>
+    <t>J305</t>
+  </si>
+  <si>
+    <t>M4011</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10mH </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <t>Альтернатива</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> По какой то причине на aliexpress отсутствуют индуктивности в исполнении SMD данного номинала</t>
+    </r>
+  </si>
+  <si>
+    <t>точнее они есть, но стоят не дешево.</t>
+  </si>
+  <si>
+    <t>* В качестве держателей для счетчика Гейгера используются держатели для предохранителей 6мм (расстояние между контактами 8мм).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,10 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="major"/>
@@ -304,6 +430,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -652,29 +787,32 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -707,6 +845,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -722,44 +863,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -789,12 +930,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -833,186 +974,161 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,24 +1145,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1063,11 +1185,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
@@ -1080,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1091,176 +1213,378 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
+      <c r="B10" t="s">
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
+      <c r="B12" t="s">
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B14" r:id="rId5"/>
-    <hyperlink ref="B12" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B13" r:id="rId8"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="F16" r:id="rId4"/>
+    <hyperlink ref="B24" r:id="rId5"/>
+    <hyperlink ref="F24" r:id="rId6"/>
+    <hyperlink ref="B15" r:id="rId7" display="10mH"/>
+    <hyperlink ref="F2" r:id="rId8"/>
+    <hyperlink ref="G2" r:id="rId9"/>
+    <hyperlink ref="F15" r:id="rId10"/>
+    <hyperlink ref="G15" r:id="rId11"/>
+    <hyperlink ref="B26" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>